--- a/data/processed/unmatched_columns/unmatched_湖南都市职业学院.xlsx
+++ b/data/processed/unmatched_columns/unmatched_湖南都市职业学院.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>学费
-（元/年）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>_源文件</t>
         </is>
       </c>
@@ -455,10 +449,7 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>15800</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -468,10 +459,7 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>15800</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -481,10 +469,7 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>17500</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -494,10 +479,7 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>17000</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -507,10 +489,7 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -520,10 +499,7 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -533,10 +509,7 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>11500</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -546,10 +519,7 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>17500</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -559,10 +529,7 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>15800</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -572,10 +539,7 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>15800</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -585,10 +549,7 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>16800</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -598,10 +559,7 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>16800</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -611,10 +569,7 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>17000</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -624,10 +579,7 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>15800</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -637,10 +589,7 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>17000</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -650,10 +599,7 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>17500</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -663,10 +609,7 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>17500</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -676,10 +619,7 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>17500</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -689,10 +629,7 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>17500</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -702,10 +639,7 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>17000</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -715,10 +649,7 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>17500</v>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -728,10 +659,7 @@
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>17900</v>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -741,10 +669,7 @@
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>17900</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -754,10 +679,7 @@
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
-        <v>18000</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -767,10 +689,7 @@
       <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
-        <v>17000</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -780,10 +699,7 @@
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -793,10 +709,7 @@
       <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
-        <v>13800</v>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -806,10 +719,7 @@
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
-        <v>13800</v>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -819,10 +729,7 @@
       <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
-        <v>16500</v>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -832,10 +739,7 @@
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
-        <v>13800</v>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -845,10 +749,7 @@
       <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
-        <v>18500</v>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -858,10 +759,7 @@
       <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -871,10 +769,7 @@
       <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
-        <v>17000</v>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -884,10 +779,7 @@
       <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -897,10 +789,7 @@
       <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
-        <v>16500</v>
-      </c>
-      <c r="C36" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -910,10 +799,7 @@
       <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="n">
-        <v>15500</v>
-      </c>
-      <c r="C37" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -923,10 +809,7 @@
       <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="n">
-        <v>18500</v>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
@@ -936,10 +819,7 @@
       <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="n">
-        <v>18000</v>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>湖南都市职业学院.xlsx</t>
         </is>
